--- a/Docs/SceneB.xlsx
+++ b/Docs/SceneB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560"/>
+    <workbookView xWindow="8580" yWindow="135" windowWidth="11835" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -85,7 +91,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -96,6 +102,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,7 +425,7 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -424,99 +454,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" s="5">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>0</v>
+      </c>
+      <c r="R1" s="5">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4">
+        <v>0</v>
+      </c>
+      <c r="T1" s="4">
+        <v>0</v>
+      </c>
+      <c r="U1" s="5">
+        <v>0</v>
+      </c>
+      <c r="V1" s="4">
+        <v>0</v>
+      </c>
+      <c r="W1" s="4">
+        <v>0</v>
+      </c>
+      <c r="X1" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2">
@@ -603,12 +633,12 @@
       <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
       <c r="B3" s="3">
@@ -695,12 +725,12 @@
       <c r="AC3" s="3">
         <v>1</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4">
@@ -787,12 +817,12 @@
       <c r="AC4">
         <v>1</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
       <c r="B5">
@@ -879,12 +909,12 @@
       <c r="AC5">
         <v>1</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="3" customFormat="1">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>0</v>
       </c>
       <c r="B6" s="3">
@@ -971,12 +1001,12 @@
       <c r="AC6" s="3">
         <v>1</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>0</v>
       </c>
       <c r="B7">
@@ -991,10 +1021,10 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7">
@@ -1009,10 +1039,10 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7">
@@ -1036,10 +1066,10 @@
       <c r="T7">
         <v>1</v>
       </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
         <v>0</v>
       </c>
       <c r="W7">
@@ -1063,12 +1093,12 @@
       <c r="AC7">
         <v>1</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>0</v>
       </c>
       <c r="B8">
@@ -1083,10 +1113,10 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8">
@@ -1101,10 +1131,10 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8">
@@ -1128,10 +1158,10 @@
       <c r="T8">
         <v>1</v>
       </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
         <v>0</v>
       </c>
       <c r="W8">
@@ -1155,12 +1185,12 @@
       <c r="AC8">
         <v>1</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>0</v>
       </c>
       <c r="B9" s="3">
@@ -1175,10 +1205,10 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>0</v>
       </c>
       <c r="H9" s="3">
@@ -1193,10 +1223,10 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="3">
@@ -1220,39 +1250,39 @@
       <c r="T9" s="3">
         <v>1</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>0</v>
       </c>
       <c r="B10">
@@ -1267,10 +1297,10 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10">
@@ -1285,10 +1315,10 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10">
@@ -1312,39 +1342,39 @@
       <c r="T10">
         <v>1</v>
       </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>0</v>
       </c>
       <c r="B11">
@@ -1359,10 +1389,10 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11">
@@ -1377,10 +1407,10 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11">
@@ -1431,12 +1461,12 @@
       <c r="AC11">
         <v>1</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>0</v>
       </c>
       <c r="B12" s="3">
@@ -1451,10 +1481,10 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>0</v>
       </c>
       <c r="H12" s="3">
@@ -1469,10 +1499,10 @@
       <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
         <v>0</v>
       </c>
       <c r="N12" s="3">
@@ -1523,12 +1553,12 @@
       <c r="AC12" s="3">
         <v>1</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>0</v>
       </c>
       <c r="B13">
@@ -1543,10 +1573,10 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13">
@@ -1561,10 +1591,10 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13">
@@ -1615,12 +1645,12 @@
       <c r="AC13">
         <v>1</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>0</v>
       </c>
       <c r="B14">
@@ -1635,10 +1665,10 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14">
@@ -1653,10 +1683,10 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14">
@@ -1707,12 +1737,12 @@
       <c r="AC14">
         <v>1</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>0</v>
       </c>
       <c r="B15" s="3">
@@ -1727,28 +1757,28 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
         <v>0</v>
       </c>
       <c r="N15" s="3">
@@ -1766,25 +1796,25 @@
       <c r="R15" s="2">
         <v>1</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
         <v>0</v>
       </c>
       <c r="Z15" s="3">
@@ -1799,12 +1829,12 @@
       <c r="AC15" s="3">
         <v>1</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>0</v>
       </c>
       <c r="B16">
@@ -1819,28 +1849,28 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16">
@@ -1858,25 +1888,25 @@
       <c r="R16" s="1">
         <v>1</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
         <v>0</v>
       </c>
       <c r="Z16">
@@ -1891,12 +1921,12 @@
       <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>0</v>
       </c>
       <c r="B17">
@@ -1965,10 +1995,10 @@
       <c r="W17">
         <v>1</v>
       </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y17">
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
         <v>0</v>
       </c>
       <c r="Z17">
@@ -1983,12 +2013,12 @@
       <c r="AC17">
         <v>1</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30" s="3" customFormat="1">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>0</v>
       </c>
       <c r="B18" s="3">
@@ -2057,10 +2087,10 @@
       <c r="W18" s="3">
         <v>1</v>
       </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
@@ -2075,12 +2105,12 @@
       <c r="AC18" s="3">
         <v>1</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>0</v>
       </c>
       <c r="B19">
@@ -2149,10 +2179,10 @@
       <c r="W19">
         <v>1</v>
       </c>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y19">
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
         <v>0</v>
       </c>
       <c r="Z19">
@@ -2167,12 +2197,12 @@
       <c r="AC19">
         <v>1</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>0</v>
       </c>
       <c r="B20">
@@ -2241,10 +2271,10 @@
       <c r="W20">
         <v>1</v>
       </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y20">
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
         <v>0</v>
       </c>
       <c r="Z20">
@@ -2259,12 +2289,12 @@
       <c r="AC20">
         <v>1</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="3" customFormat="1">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>0</v>
       </c>
       <c r="B21" s="3">
@@ -2333,10 +2363,10 @@
       <c r="W21" s="3">
         <v>1</v>
       </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="X21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
         <v>0</v>
       </c>
       <c r="Z21" s="3">
@@ -2351,12 +2381,12 @@
       <c r="AC21" s="3">
         <v>1</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>0</v>
       </c>
       <c r="B22">
@@ -2407,11 +2437,11 @@
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
+      <c r="R22" s="8">
+        <v>1</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2425,10 +2455,10 @@
       <c r="W22">
         <v>1</v>
       </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22">
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
         <v>0</v>
       </c>
       <c r="Z22">
@@ -2443,12 +2473,12 @@
       <c r="AC22">
         <v>1</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>0</v>
       </c>
       <c r="B23">
@@ -2499,11 +2529,11 @@
       <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
+      <c r="R23" s="8">
+        <v>1</v>
+      </c>
+      <c r="S23" s="9">
+        <v>1</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2517,10 +2547,10 @@
       <c r="W23">
         <v>1</v>
       </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23">
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
         <v>0</v>
       </c>
       <c r="Z23">
@@ -2535,39 +2565,39 @@
       <c r="AC23">
         <v>1</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:30" s="3" customFormat="1">
-      <c r="A24" s="3">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="A24" s="7">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
         <v>0</v>
       </c>
       <c r="K24" s="3">
@@ -2591,11 +2621,11 @@
       <c r="Q24" s="3">
         <v>1</v>
       </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="10">
+        <v>1</v>
+      </c>
+      <c r="S24" s="11">
+        <v>1</v>
       </c>
       <c r="T24" s="3">
         <v>1</v>
@@ -2609,10 +2639,10 @@
       <c r="W24" s="3">
         <v>1</v>
       </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="X24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="7">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
@@ -2627,39 +2657,39 @@
       <c r="AC24" s="3">
         <v>1</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="A25" s="4">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
         <v>0</v>
       </c>
       <c r="K25">
@@ -2683,11 +2713,11 @@
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
+      <c r="R25" s="8">
+        <v>1</v>
+      </c>
+      <c r="S25" s="9">
+        <v>1</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2701,11 +2731,11 @@
       <c r="W25">
         <v>1</v>
       </c>
-      <c r="X25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -2719,12 +2749,12 @@
       <c r="AC25">
         <v>1</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AD25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>0</v>
       </c>
       <c r="B26">
@@ -2748,10 +2778,10 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
         <v>0</v>
       </c>
       <c r="K26">
@@ -2775,11 +2805,11 @@
       <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
+      <c r="R26" s="8">
+        <v>1</v>
+      </c>
+      <c r="S26" s="9">
+        <v>1</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2793,11 +2823,11 @@
       <c r="W26">
         <v>1</v>
       </c>
-      <c r="X26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -2811,12 +2841,12 @@
       <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:30" s="3" customFormat="1">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>0</v>
       </c>
       <c r="B27" s="3">
@@ -2840,10 +2870,10 @@
       <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
         <v>0</v>
       </c>
       <c r="K27" s="3">
@@ -2867,29 +2897,29 @@
       <c r="Q27" s="3">
         <v>1</v>
       </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1</v>
-      </c>
-      <c r="U27" s="2">
-        <v>1</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1</v>
-      </c>
-      <c r="X27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>1</v>
+      <c r="R27" s="10">
+        <v>1</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+      <c r="X27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>1</v>
@@ -2903,12 +2933,12 @@
       <c r="AC27" s="3">
         <v>1</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>0</v>
       </c>
       <c r="B28">
@@ -2959,28 +2989,28 @@
       <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y28">
+      <c r="R28" s="8">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
         <v>0</v>
       </c>
       <c r="Z28">
@@ -2995,12 +3025,12 @@
       <c r="AC28">
         <v>1</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AD28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>0</v>
       </c>
       <c r="B29">
@@ -3051,29 +3081,29 @@
       <c r="Q29">
         <v>1</v>
       </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29" s="1">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
+      <c r="R29" s="8">
+        <v>1</v>
+      </c>
+      <c r="S29" s="9">
+        <v>1</v>
+      </c>
+      <c r="T29" s="9">
+        <v>1</v>
+      </c>
+      <c r="U29" s="8">
+        <v>1</v>
+      </c>
+      <c r="V29" s="9">
+        <v>1</v>
+      </c>
+      <c r="W29" s="9">
+        <v>1</v>
+      </c>
+      <c r="X29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -3087,12 +3117,12 @@
       <c r="AC29">
         <v>1</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AD29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:30" s="3" customFormat="1">
-      <c r="A30" s="3">
+      <c r="A30" s="7">
         <v>0</v>
       </c>
       <c r="B30" s="3">
@@ -3143,29 +3173,29 @@
       <c r="Q30" s="3">
         <v>1</v>
       </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="3">
-        <v>0</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0</v>
-      </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0</v>
+      <c r="R30" s="10">
+        <v>1</v>
+      </c>
+      <c r="S30" s="11">
+        <v>1</v>
+      </c>
+      <c r="T30" s="11">
+        <v>1</v>
+      </c>
+      <c r="U30" s="10">
+        <v>1</v>
+      </c>
+      <c r="V30" s="11">
+        <v>1</v>
+      </c>
+      <c r="W30" s="11">
+        <v>1</v>
+      </c>
+      <c r="X30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>1</v>
       </c>
       <c r="Z30" s="3">
         <v>1</v>
@@ -3179,12 +3209,12 @@
       <c r="AC30" s="3">
         <v>1</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>0</v>
       </c>
       <c r="B31">
@@ -3208,10 +3238,10 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
         <v>0</v>
       </c>
       <c r="K31">
@@ -3235,29 +3265,29 @@
       <c r="Q31">
         <v>1</v>
       </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
+      <c r="R31" s="8">
+        <v>1</v>
+      </c>
+      <c r="S31" s="9">
+        <v>1</v>
+      </c>
+      <c r="T31" s="9">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8">
+        <v>1</v>
+      </c>
+      <c r="V31" s="9">
+        <v>1</v>
+      </c>
+      <c r="W31" s="9">
+        <v>1</v>
+      </c>
+      <c r="X31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -3271,12 +3301,12 @@
       <c r="AC31">
         <v>1</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AD31" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>0</v>
       </c>
       <c r="B32">
@@ -3300,10 +3330,10 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>0</v>
       </c>
       <c r="K32">
@@ -3363,99 +3393,99 @@
       <c r="AC32">
         <v>1</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AD32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:30" s="3" customFormat="1">
-      <c r="A33" s="3">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="2">
+      <c r="A33" s="7">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="6">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+      <c r="X33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="6">
         <v>0</v>
       </c>
     </row>
